--- a/results/I3_N5_M3_T30_C100_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.3959124745319</v>
+        <v>591.8371978589363</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3789999485015869</v>
+        <v>0.5140001773834229</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.21600859425494</v>
+        <v>35.83719785893628</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.9499038802769</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.23</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -667,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999996194443356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999996201110023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.76867181806004</v>
+        <v>24.86548931250504</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.20829884070386</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>4.828177710068246</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.01113217432257</v>
+        <v>25.71676524108239</v>
       </c>
     </row>
     <row r="7">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>121.6319999999923</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>115.2720000000004</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>33.01999999999114</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7909999999856</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>80.55899999999168</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>121.6319999999923</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>107.7909970001969</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>115.2719933878385</v>
+        <v>115.4</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.63199999999233</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7.7909970001969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>15.27199338783846</v>
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10.723</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1318,23 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
